--- a/SESwaterTC.xlsx
+++ b/SESwaterTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12D8EB-D16F-49FE-A7D0-D979CE57052C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A571C-A763-4F7F-81AD-2E315BB53C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="43" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_SESCaseBC" sheetId="2" r:id="rId1"/>
@@ -4494,8 +4494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6728,7 +6728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="G21" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9382,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17666,7 +17666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19345,7 +19347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="G20" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
